--- a/Data/EdgesMontgomery.xlsx
+++ b/Data/EdgesMontgomery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ru58paj\Documents\NetworkSplines\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24564F5F-3760-49B4-A336-E15881C3D63B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245640BB-31F0-4BC0-AF32-CEE3F633AB70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57BDA689-8332-4DA0-81AA-9A32A151B817}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{57BDA689-8332-4DA0-81AA-9A32A151B817}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="43">
   <si>
     <t>MD 396</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>SENW</t>
+  </si>
+  <si>
+    <t>SWNE</t>
   </si>
 </sst>
 </file>
@@ -519,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C645A914-020F-4BBE-BC19-8BCC408B84BB}">
   <dimension ref="A1:F534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A504" workbookViewId="0">
-      <selection activeCell="G523" sqref="G523"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H513" sqref="H513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -562,7 +565,7 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -582,7 +585,7 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -602,7 +605,7 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -622,7 +625,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -642,7 +645,7 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -922,7 +925,7 @@
         <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -942,7 +945,7 @@
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -962,7 +965,7 @@
         <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -982,7 +985,7 @@
         <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1002,7 +1005,7 @@
         <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1022,7 +1025,7 @@
         <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1042,7 +1045,7 @@
         <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1062,7 +1065,7 @@
         <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1082,7 +1085,7 @@
         <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1102,7 +1105,7 @@
         <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1122,7 +1125,7 @@
         <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1142,7 +1145,7 @@
         <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1162,7 +1165,7 @@
         <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1182,7 +1185,7 @@
         <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1202,7 +1205,7 @@
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1222,7 +1225,7 @@
         <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1242,7 +1245,7 @@
         <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -1262,7 +1265,7 @@
         <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1282,7 +1285,7 @@
         <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1302,7 +1305,7 @@
         <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1322,7 +1325,7 @@
         <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1342,7 +1345,7 @@
         <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -1362,7 +1365,7 @@
         <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1382,7 +1385,7 @@
         <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -1402,7 +1405,7 @@
         <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -1422,7 +1425,7 @@
         <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -1442,7 +1445,7 @@
         <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -1462,7 +1465,7 @@
         <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1482,7 +1485,7 @@
         <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -1502,7 +1505,7 @@
         <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -1522,7 +1525,7 @@
         <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -1542,7 +1545,7 @@
         <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -1562,7 +1565,7 @@
         <v>33</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -1642,7 +1645,7 @@
         <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -1662,7 +1665,7 @@
         <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -1682,7 +1685,7 @@
         <v>33</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -1702,7 +1705,7 @@
         <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -1722,7 +1725,7 @@
         <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -1742,7 +1745,7 @@
         <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -1762,7 +1765,7 @@
         <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -1782,7 +1785,7 @@
         <v>33</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -1802,7 +1805,7 @@
         <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -1822,7 +1825,7 @@
         <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -1842,7 +1845,7 @@
         <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -1862,7 +1865,7 @@
         <v>33</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -1882,7 +1885,7 @@
         <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -1902,7 +1905,7 @@
         <v>33</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -1922,7 +1925,7 @@
         <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -1942,7 +1945,7 @@
         <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -3182,7 +3185,7 @@
         <v>34</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
@@ -3202,7 +3205,7 @@
         <v>34</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
@@ -3222,7 +3225,7 @@
         <v>34</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
@@ -3242,7 +3245,7 @@
         <v>34</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
@@ -3262,7 +3265,7 @@
         <v>34</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
@@ -3282,7 +3285,7 @@
         <v>34</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
@@ -3302,7 +3305,7 @@
         <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
@@ -3322,7 +3325,7 @@
         <v>34</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
@@ -3342,7 +3345,7 @@
         <v>34</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
@@ -3982,7 +3985,7 @@
         <v>34</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
@@ -4002,7 +4005,7 @@
         <v>34</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
@@ -4022,7 +4025,7 @@
         <v>34</v>
       </c>
       <c r="F175" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
@@ -4042,7 +4045,7 @@
         <v>34</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
@@ -4062,7 +4065,7 @@
         <v>34</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
@@ -5182,7 +5185,7 @@
         <v>33</v>
       </c>
       <c r="F233" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
@@ -5202,7 +5205,7 @@
         <v>33</v>
       </c>
       <c r="F234" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
@@ -5222,7 +5225,7 @@
         <v>33</v>
       </c>
       <c r="F235" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
@@ -5242,7 +5245,7 @@
         <v>33</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
@@ -5262,7 +5265,7 @@
         <v>33</v>
       </c>
       <c r="F237" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
@@ -5282,7 +5285,7 @@
         <v>33</v>
       </c>
       <c r="F238" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
@@ -5302,7 +5305,7 @@
         <v>33</v>
       </c>
       <c r="F239" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
@@ -5322,7 +5325,7 @@
         <v>33</v>
       </c>
       <c r="F240" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
@@ -5342,7 +5345,7 @@
         <v>33</v>
       </c>
       <c r="F241" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
@@ -5362,7 +5365,7 @@
         <v>33</v>
       </c>
       <c r="F242" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
@@ -5382,7 +5385,7 @@
         <v>33</v>
       </c>
       <c r="F243" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
@@ -5402,7 +5405,7 @@
         <v>33</v>
       </c>
       <c r="F244" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
@@ -5422,7 +5425,7 @@
         <v>33</v>
       </c>
       <c r="F245" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
@@ -5442,7 +5445,7 @@
         <v>33</v>
       </c>
       <c r="F246" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
@@ -5462,7 +5465,7 @@
         <v>33</v>
       </c>
       <c r="F247" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
@@ -5482,7 +5485,7 @@
         <v>33</v>
       </c>
       <c r="F248" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
@@ -5662,7 +5665,7 @@
         <v>33</v>
       </c>
       <c r="F257" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
@@ -5682,7 +5685,7 @@
         <v>33</v>
       </c>
       <c r="F258" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
@@ -5702,7 +5705,7 @@
         <v>33</v>
       </c>
       <c r="F259" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
@@ -5722,7 +5725,7 @@
         <v>33</v>
       </c>
       <c r="F260" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
@@ -5742,7 +5745,7 @@
         <v>33</v>
       </c>
       <c r="F261" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
@@ -5762,7 +5765,7 @@
         <v>33</v>
       </c>
       <c r="F262" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
@@ -5782,7 +5785,7 @@
         <v>33</v>
       </c>
       <c r="F263" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
@@ -5802,7 +5805,7 @@
         <v>33</v>
       </c>
       <c r="F264" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
@@ -5822,7 +5825,7 @@
         <v>33</v>
       </c>
       <c r="F265" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
@@ -5842,7 +5845,7 @@
         <v>33</v>
       </c>
       <c r="F266" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
@@ -5862,7 +5865,7 @@
         <v>33</v>
       </c>
       <c r="F267" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
@@ -5882,7 +5885,7 @@
         <v>33</v>
       </c>
       <c r="F268" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
@@ -5902,7 +5905,7 @@
         <v>33</v>
       </c>
       <c r="F269" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
@@ -5922,7 +5925,7 @@
         <v>33</v>
       </c>
       <c r="F270" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
@@ -5942,7 +5945,7 @@
         <v>33</v>
       </c>
       <c r="F271" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
@@ -5962,7 +5965,7 @@
         <v>33</v>
       </c>
       <c r="F272" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
@@ -5982,7 +5985,7 @@
         <v>33</v>
       </c>
       <c r="F273" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
@@ -6002,7 +6005,7 @@
         <v>33</v>
       </c>
       <c r="F274" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
@@ -6022,7 +6025,7 @@
         <v>33</v>
       </c>
       <c r="F275" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
@@ -6042,7 +6045,7 @@
         <v>33</v>
       </c>
       <c r="F276" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
@@ -6062,7 +6065,7 @@
         <v>33</v>
       </c>
       <c r="F277" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
@@ -6082,7 +6085,7 @@
         <v>33</v>
       </c>
       <c r="F278" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.35">
@@ -6102,7 +6105,7 @@
         <v>33</v>
       </c>
       <c r="F279" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.35">
@@ -6122,7 +6125,7 @@
         <v>33</v>
       </c>
       <c r="F280" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.35">
@@ -6142,7 +6145,7 @@
         <v>33</v>
       </c>
       <c r="F281" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
@@ -6162,7 +6165,7 @@
         <v>33</v>
       </c>
       <c r="F282" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.35">
@@ -6182,7 +6185,7 @@
         <v>33</v>
       </c>
       <c r="F283" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.35">
@@ -6202,7 +6205,7 @@
         <v>33</v>
       </c>
       <c r="F284" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
@@ -6222,7 +6225,7 @@
         <v>33</v>
       </c>
       <c r="F285" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
@@ -6242,7 +6245,7 @@
         <v>33</v>
       </c>
       <c r="F286" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.35">
@@ -6262,7 +6265,7 @@
         <v>33</v>
       </c>
       <c r="F287" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
@@ -6282,10 +6285,10 @@
         <v>33</v>
       </c>
       <c r="F288" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>288</v>
       </c>
@@ -6301,8 +6304,11 @@
       <c r="E289" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F289" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>289</v>
       </c>
@@ -6318,8 +6324,11 @@
       <c r="E290" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F290" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>290</v>
       </c>
@@ -6335,8 +6344,11 @@
       <c r="E291" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F291" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>291</v>
       </c>
@@ -6352,8 +6364,11 @@
       <c r="E292" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F292" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>292</v>
       </c>
@@ -6369,8 +6384,11 @@
       <c r="E293" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F293" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>293</v>
       </c>
@@ -6386,8 +6404,11 @@
       <c r="E294" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F294" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>294</v>
       </c>
@@ -6403,8 +6424,11 @@
       <c r="E295" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F295" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>295</v>
       </c>
@@ -6420,8 +6444,11 @@
       <c r="E296" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F296" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>296</v>
       </c>
@@ -6437,8 +6464,11 @@
       <c r="E297" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F297" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>297</v>
       </c>
@@ -6454,8 +6484,11 @@
       <c r="E298" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F298" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>298</v>
       </c>
@@ -6471,8 +6504,11 @@
       <c r="E299" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F299" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>299</v>
       </c>
@@ -6488,8 +6524,11 @@
       <c r="E300" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F300" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>300</v>
       </c>
@@ -6505,8 +6544,11 @@
       <c r="E301" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F301" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>301</v>
       </c>
@@ -6522,8 +6564,11 @@
       <c r="E302" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F302" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>302</v>
       </c>
@@ -6539,8 +6584,11 @@
       <c r="E303" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F303" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>303</v>
       </c>
@@ -6556,8 +6604,11 @@
       <c r="E304" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F304" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>304</v>
       </c>
@@ -6573,8 +6624,11 @@
       <c r="E305" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F305" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>305</v>
       </c>
@@ -6590,8 +6644,11 @@
       <c r="E306" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F306" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>306</v>
       </c>
@@ -6607,8 +6664,11 @@
       <c r="E307" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F307" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>307</v>
       </c>
@@ -6624,8 +6684,11 @@
       <c r="E308" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F308" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>308</v>
       </c>
@@ -6641,8 +6704,11 @@
       <c r="E309" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F309" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>309</v>
       </c>
@@ -6658,8 +6724,11 @@
       <c r="E310" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F310" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>310</v>
       </c>
@@ -6675,8 +6744,11 @@
       <c r="E311" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F311" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>311</v>
       </c>
@@ -6692,8 +6764,11 @@
       <c r="E312" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F312" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>312</v>
       </c>
@@ -6709,8 +6784,11 @@
       <c r="E313" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F313" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>313</v>
       </c>
@@ -6726,8 +6804,11 @@
       <c r="E314" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F314" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>314</v>
       </c>
@@ -6743,8 +6824,11 @@
       <c r="E315" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F315" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>315</v>
       </c>
@@ -6760,8 +6844,11 @@
       <c r="E316" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F316" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>316</v>
       </c>
@@ -6777,8 +6864,11 @@
       <c r="E317" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F317" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>317</v>
       </c>
@@ -6794,8 +6884,11 @@
       <c r="E318" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F318" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>318</v>
       </c>
@@ -6811,8 +6904,11 @@
       <c r="E319" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F319" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>319</v>
       </c>
@@ -6828,8 +6924,11 @@
       <c r="E320" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F320" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>320</v>
       </c>
@@ -6845,8 +6944,11 @@
       <c r="E321" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F321" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>321</v>
       </c>
@@ -6862,8 +6964,11 @@
       <c r="E322" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F322" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>322</v>
       </c>
@@ -6879,8 +6984,11 @@
       <c r="E323" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F323" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>323</v>
       </c>
@@ -6896,8 +7004,11 @@
       <c r="E324" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F324" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>324</v>
       </c>
@@ -6913,8 +7024,11 @@
       <c r="E325" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F325" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>325</v>
       </c>
@@ -6930,8 +7044,11 @@
       <c r="E326" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F326" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>326</v>
       </c>
@@ -6947,8 +7064,11 @@
       <c r="E327" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F327" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>327</v>
       </c>
@@ -6964,8 +7084,11 @@
       <c r="E328" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F328" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>328</v>
       </c>
@@ -6981,8 +7104,11 @@
       <c r="E329" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F329" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>329</v>
       </c>
@@ -6998,8 +7124,11 @@
       <c r="E330" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F330" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>330</v>
       </c>
@@ -7015,8 +7144,11 @@
       <c r="E331" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F331" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>331</v>
       </c>
@@ -7032,8 +7164,11 @@
       <c r="E332" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F332" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>332</v>
       </c>
@@ -7049,8 +7184,11 @@
       <c r="E333" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F333" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>333</v>
       </c>
@@ -7066,8 +7204,11 @@
       <c r="E334" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F334" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>334</v>
       </c>
@@ -7083,8 +7224,11 @@
       <c r="E335" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F335" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>335</v>
       </c>
@@ -7100,8 +7244,11 @@
       <c r="E336" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F336" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>336</v>
       </c>
@@ -7117,8 +7264,11 @@
       <c r="E337" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F337" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>337</v>
       </c>
@@ -7134,8 +7284,11 @@
       <c r="E338" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F338" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>338</v>
       </c>
@@ -7151,8 +7304,11 @@
       <c r="E339" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F339" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>339</v>
       </c>
@@ -7168,8 +7324,11 @@
       <c r="E340" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F340" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>340</v>
       </c>
@@ -7185,8 +7344,11 @@
       <c r="E341" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F341" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>341</v>
       </c>
@@ -7202,8 +7364,11 @@
       <c r="E342" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F342" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>342</v>
       </c>
@@ -7219,8 +7384,11 @@
       <c r="E343" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F343" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>343</v>
       </c>
@@ -7236,8 +7404,11 @@
       <c r="E344" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F344" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>344</v>
       </c>
@@ -7253,8 +7424,11 @@
       <c r="E345" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F345" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>345</v>
       </c>
@@ -7270,8 +7444,11 @@
       <c r="E346" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F346" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>346</v>
       </c>
@@ -7287,8 +7464,11 @@
       <c r="E347" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F347" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>347</v>
       </c>
@@ -7304,8 +7484,11 @@
       <c r="E348" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F348" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>348</v>
       </c>
@@ -7321,8 +7504,11 @@
       <c r="E349" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F349" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>349</v>
       </c>
@@ -7338,8 +7524,11 @@
       <c r="E350" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F350" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>350</v>
       </c>
@@ -7355,8 +7544,11 @@
       <c r="E351" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F351" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>351</v>
       </c>
@@ -7372,8 +7564,11 @@
       <c r="E352" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F352" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>352</v>
       </c>
@@ -7389,8 +7584,11 @@
       <c r="E353" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F353" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>353</v>
       </c>
@@ -7406,8 +7604,11 @@
       <c r="E354" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F354" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>354</v>
       </c>
@@ -7423,8 +7624,11 @@
       <c r="E355" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F355" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>355</v>
       </c>
@@ -7440,8 +7644,11 @@
       <c r="E356" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F356" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>356</v>
       </c>
@@ -7457,8 +7664,11 @@
       <c r="E357" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F357" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>357</v>
       </c>
@@ -7474,8 +7684,11 @@
       <c r="E358" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F358" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>358</v>
       </c>
@@ -7491,8 +7704,11 @@
       <c r="E359" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F359" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>359</v>
       </c>
@@ -7508,8 +7724,11 @@
       <c r="E360" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F360" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>360</v>
       </c>
@@ -7525,8 +7744,11 @@
       <c r="E361" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F361" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>361</v>
       </c>
@@ -7542,8 +7764,11 @@
       <c r="E362" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F362" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>362</v>
       </c>
@@ -7559,8 +7784,11 @@
       <c r="E363" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F363" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>363</v>
       </c>
@@ -7576,8 +7804,11 @@
       <c r="E364" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F364" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>364</v>
       </c>
@@ -7593,8 +7824,11 @@
       <c r="E365" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F365" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>365</v>
       </c>
@@ -7610,8 +7844,11 @@
       <c r="E366" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F366" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>366</v>
       </c>
@@ -7627,8 +7864,11 @@
       <c r="E367" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F367" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>367</v>
       </c>
@@ -7644,8 +7884,11 @@
       <c r="E368" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F368" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>368</v>
       </c>
@@ -7661,8 +7904,11 @@
       <c r="E369" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F369" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>369</v>
       </c>
@@ -7678,8 +7924,11 @@
       <c r="E370" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F370" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>370</v>
       </c>
@@ -7695,8 +7944,11 @@
       <c r="E371" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F371" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>371</v>
       </c>
@@ -7712,8 +7964,11 @@
       <c r="E372" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F372" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>372</v>
       </c>
@@ -7729,8 +7984,11 @@
       <c r="E373" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F373" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>373</v>
       </c>
@@ -7746,8 +8004,11 @@
       <c r="E374" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F374" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>374</v>
       </c>
@@ -7763,8 +8024,11 @@
       <c r="E375" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F375" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>375</v>
       </c>
@@ -7780,8 +8044,11 @@
       <c r="E376" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F376" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>376</v>
       </c>
@@ -7797,8 +8064,11 @@
       <c r="E377" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F377" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>377</v>
       </c>
@@ -7814,8 +8084,11 @@
       <c r="E378" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F378" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>378</v>
       </c>
@@ -7831,8 +8104,11 @@
       <c r="E379" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F379" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>379</v>
       </c>
@@ -7848,8 +8124,11 @@
       <c r="E380" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F380" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>380</v>
       </c>
@@ -7865,8 +8144,11 @@
       <c r="E381" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F381" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>381</v>
       </c>
@@ -7882,8 +8164,11 @@
       <c r="E382" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F382" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>382</v>
       </c>
@@ -7899,8 +8184,11 @@
       <c r="E383" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F383" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>383</v>
       </c>
@@ -7916,8 +8204,11 @@
       <c r="E384" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F384" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>384</v>
       </c>
@@ -7933,8 +8224,11 @@
       <c r="E385" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F385" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>385</v>
       </c>
@@ -7950,8 +8244,11 @@
       <c r="E386" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F386" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>386</v>
       </c>
@@ -7967,8 +8264,11 @@
       <c r="E387" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F387" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>387</v>
       </c>
@@ -7984,8 +8284,11 @@
       <c r="E388" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F388" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>388</v>
       </c>
@@ -8001,8 +8304,11 @@
       <c r="E389" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F389" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>389</v>
       </c>
@@ -8018,8 +8324,11 @@
       <c r="E390" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F390" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>390</v>
       </c>
@@ -8035,8 +8344,11 @@
       <c r="E391" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F391" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>391</v>
       </c>
@@ -8052,8 +8364,11 @@
       <c r="E392" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F392" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>392</v>
       </c>
@@ -8069,8 +8384,11 @@
       <c r="E393" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F393" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>393</v>
       </c>
@@ -8086,8 +8404,11 @@
       <c r="E394" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F394" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>394</v>
       </c>
@@ -8103,8 +8424,11 @@
       <c r="E395" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F395" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>395</v>
       </c>
@@ -8120,8 +8444,11 @@
       <c r="E396" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F396" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>396</v>
       </c>
@@ -8137,8 +8464,11 @@
       <c r="E397" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F397" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>397</v>
       </c>
@@ -8154,8 +8484,11 @@
       <c r="E398" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F398" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>398</v>
       </c>
@@ -8171,8 +8504,11 @@
       <c r="E399" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F399" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>399</v>
       </c>
@@ -8188,8 +8524,11 @@
       <c r="E400" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F400" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>400</v>
       </c>
@@ -8205,8 +8544,11 @@
       <c r="E401" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F401" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>401</v>
       </c>
@@ -8222,8 +8564,11 @@
       <c r="E402" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F402" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>402</v>
       </c>
@@ -8239,8 +8584,11 @@
       <c r="E403" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F403" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>403</v>
       </c>
@@ -8256,8 +8604,11 @@
       <c r="E404" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F404" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>404</v>
       </c>
@@ -8273,8 +8624,11 @@
       <c r="E405" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F405" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>405</v>
       </c>
@@ -8290,8 +8644,11 @@
       <c r="E406" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F406" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>406</v>
       </c>
@@ -8307,8 +8664,11 @@
       <c r="E407" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F407" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>407</v>
       </c>
@@ -8324,8 +8684,11 @@
       <c r="E408" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F408" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>408</v>
       </c>
@@ -8341,8 +8704,11 @@
       <c r="E409" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F409" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>409</v>
       </c>
@@ -8358,8 +8724,11 @@
       <c r="E410" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F410" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>410</v>
       </c>
@@ -8375,8 +8744,11 @@
       <c r="E411" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F411" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>411</v>
       </c>
@@ -8392,8 +8764,11 @@
       <c r="E412" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F412" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>412</v>
       </c>
@@ -8409,8 +8784,11 @@
       <c r="E413" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F413" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>413</v>
       </c>
@@ -8426,8 +8804,11 @@
       <c r="E414" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F414" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>414</v>
       </c>
@@ -8443,8 +8824,11 @@
       <c r="E415" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F415" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>415</v>
       </c>
@@ -8460,8 +8844,11 @@
       <c r="E416" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F416" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>416</v>
       </c>
@@ -8477,8 +8864,11 @@
       <c r="E417" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F417" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>417</v>
       </c>
@@ -8494,8 +8884,11 @@
       <c r="E418" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F418" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>418</v>
       </c>
@@ -8511,8 +8904,11 @@
       <c r="E419" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F419" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>419</v>
       </c>
@@ -8528,8 +8924,11 @@
       <c r="E420" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F420" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>420</v>
       </c>
@@ -8545,8 +8944,11 @@
       <c r="E421" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F421" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>421</v>
       </c>
@@ -8562,8 +8964,11 @@
       <c r="E422" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F422" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>422</v>
       </c>
@@ -8579,8 +8984,11 @@
       <c r="E423" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F423" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>423</v>
       </c>
@@ -8596,8 +9004,11 @@
       <c r="E424" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F424" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>424</v>
       </c>
@@ -8613,8 +9024,11 @@
       <c r="E425" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F425" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>425</v>
       </c>
@@ -8630,8 +9044,11 @@
       <c r="E426" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F426" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>426</v>
       </c>
@@ -8647,8 +9064,11 @@
       <c r="E427" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F427" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>427</v>
       </c>
@@ -8664,8 +9084,11 @@
       <c r="E428" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F428" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>428</v>
       </c>
@@ -8681,8 +9104,11 @@
       <c r="E429" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F429" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>429</v>
       </c>
@@ -8698,8 +9124,11 @@
       <c r="E430" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F430" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>430</v>
       </c>
@@ -8715,8 +9144,11 @@
       <c r="E431" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F431" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>431</v>
       </c>
@@ -8732,8 +9164,11 @@
       <c r="E432" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F432" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>432</v>
       </c>
@@ -8749,8 +9184,11 @@
       <c r="E433" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F433" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>433</v>
       </c>
@@ -8766,8 +9204,11 @@
       <c r="E434" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F434" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>434</v>
       </c>
@@ -8783,8 +9224,11 @@
       <c r="E435" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F435" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>435</v>
       </c>
@@ -8800,8 +9244,11 @@
       <c r="E436" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F436" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>436</v>
       </c>
@@ -8817,8 +9264,11 @@
       <c r="E437" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F437" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>437</v>
       </c>
@@ -8834,8 +9284,11 @@
       <c r="E438" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F438" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>438</v>
       </c>
@@ -8851,8 +9304,11 @@
       <c r="E439" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F439" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>439</v>
       </c>
@@ -8868,8 +9324,11 @@
       <c r="E440" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F440" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>440</v>
       </c>
@@ -8885,8 +9344,11 @@
       <c r="E441" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F441" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>441</v>
       </c>
@@ -8902,8 +9364,11 @@
       <c r="E442" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F442" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>442</v>
       </c>
@@ -8919,8 +9384,11 @@
       <c r="E443" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F443" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>443</v>
       </c>
@@ -8936,8 +9404,11 @@
       <c r="E444" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F444" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>444</v>
       </c>
@@ -8953,8 +9424,11 @@
       <c r="E445" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F445" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>445</v>
       </c>
@@ -8970,8 +9444,11 @@
       <c r="E446" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F446" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>446</v>
       </c>
@@ -8987,8 +9464,11 @@
       <c r="E447" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F447" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>447</v>
       </c>
@@ -9004,8 +9484,11 @@
       <c r="E448" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F448" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>448</v>
       </c>
@@ -9021,8 +9504,11 @@
       <c r="E449" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F449" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>449</v>
       </c>
@@ -9038,8 +9524,11 @@
       <c r="E450" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F450" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>450</v>
       </c>
@@ -9055,8 +9544,11 @@
       <c r="E451" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F451" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>451</v>
       </c>
@@ -9072,8 +9564,11 @@
       <c r="E452" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F452" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>452</v>
       </c>
@@ -9089,8 +9584,11 @@
       <c r="E453" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F453" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>453</v>
       </c>
@@ -9106,8 +9604,11 @@
       <c r="E454" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F454" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>454</v>
       </c>
@@ -9123,8 +9624,11 @@
       <c r="E455" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F455" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>455</v>
       </c>
@@ -9140,8 +9644,11 @@
       <c r="E456" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F456" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>456</v>
       </c>
@@ -9157,8 +9664,11 @@
       <c r="E457" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F457" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>457</v>
       </c>
@@ -9174,8 +9684,11 @@
       <c r="E458" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F458" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>458</v>
       </c>
@@ -9191,8 +9704,11 @@
       <c r="E459" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F459" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>459</v>
       </c>
@@ -9208,8 +9724,11 @@
       <c r="E460" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F460" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>460</v>
       </c>
@@ -9225,8 +9744,11 @@
       <c r="E461" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F461" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>461</v>
       </c>
@@ -9242,8 +9764,11 @@
       <c r="E462" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F462" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>462</v>
       </c>
@@ -9259,8 +9784,11 @@
       <c r="E463" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F463" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>463</v>
       </c>
@@ -9276,8 +9804,11 @@
       <c r="E464" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F464" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>464</v>
       </c>
@@ -9293,8 +9824,11 @@
       <c r="E465" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F465" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>465</v>
       </c>
@@ -9310,8 +9844,11 @@
       <c r="E466" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F466" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>466</v>
       </c>
@@ -9327,8 +9864,11 @@
       <c r="E467" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F467" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>467</v>
       </c>
@@ -9344,8 +9884,11 @@
       <c r="E468" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F468" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>468</v>
       </c>
@@ -9361,8 +9904,11 @@
       <c r="E469" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F469" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>469</v>
       </c>
@@ -9378,8 +9924,11 @@
       <c r="E470" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F470" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>470</v>
       </c>
@@ -9395,8 +9944,11 @@
       <c r="E471" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F471" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>471</v>
       </c>
@@ -9412,8 +9964,11 @@
       <c r="E472" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F472" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>472</v>
       </c>
@@ -9429,8 +9984,11 @@
       <c r="E473" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F473" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>473</v>
       </c>
@@ -9446,8 +10004,11 @@
       <c r="E474" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F474" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>474</v>
       </c>
@@ -9463,8 +10024,11 @@
       <c r="E475" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F475" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>475</v>
       </c>
@@ -9480,8 +10044,11 @@
       <c r="E476" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F476" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>476</v>
       </c>
@@ -9497,8 +10064,11 @@
       <c r="E477" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F477" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>477</v>
       </c>
@@ -9514,8 +10084,11 @@
       <c r="E478" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F478" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>478</v>
       </c>
@@ -9531,8 +10104,11 @@
       <c r="E479" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F479" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>479</v>
       </c>
@@ -9548,8 +10124,11 @@
       <c r="E480" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F480" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>480</v>
       </c>
@@ -9565,8 +10144,11 @@
       <c r="E481" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F481" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>481</v>
       </c>
@@ -9582,8 +10164,11 @@
       <c r="E482" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F482" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>482</v>
       </c>
@@ -9599,8 +10184,11 @@
       <c r="E483" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F483" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>483</v>
       </c>
@@ -9616,8 +10204,11 @@
       <c r="E484" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F484" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>484</v>
       </c>
@@ -9633,8 +10224,11 @@
       <c r="E485" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F485" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>485</v>
       </c>
@@ -9650,8 +10244,11 @@
       <c r="E486" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F486" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>486</v>
       </c>
@@ -9667,8 +10264,11 @@
       <c r="E487" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F487" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>487</v>
       </c>
@@ -9684,8 +10284,11 @@
       <c r="E488" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F488" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>488</v>
       </c>
@@ -9701,8 +10304,11 @@
       <c r="E489" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F489" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>489</v>
       </c>
@@ -9718,8 +10324,11 @@
       <c r="E490" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F490" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>490</v>
       </c>
@@ -9735,8 +10344,11 @@
       <c r="E491" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F491" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>491</v>
       </c>
@@ -9752,8 +10364,11 @@
       <c r="E492" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F492" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>492</v>
       </c>
@@ -9769,8 +10384,11 @@
       <c r="E493" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F493" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>493</v>
       </c>
@@ -9786,8 +10404,11 @@
       <c r="E494" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F494" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>494</v>
       </c>
@@ -9803,8 +10424,11 @@
       <c r="E495" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F495" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>495</v>
       </c>
@@ -9819,6 +10443,9 @@
       </c>
       <c r="E496" t="s">
         <v>33</v>
+      </c>
+      <c r="F496" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.35">
@@ -9837,6 +10464,9 @@
       <c r="E497" t="s">
         <v>33</v>
       </c>
+      <c r="F497" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A498">
@@ -9854,6 +10484,9 @@
       <c r="E498" t="s">
         <v>33</v>
       </c>
+      <c r="F498" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A499">
@@ -9871,6 +10504,9 @@
       <c r="E499" t="s">
         <v>33</v>
       </c>
+      <c r="F499" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A500">
@@ -9888,6 +10524,9 @@
       <c r="E500" t="s">
         <v>33</v>
       </c>
+      <c r="F500" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A501">
@@ -9905,6 +10544,9 @@
       <c r="E501" t="s">
         <v>33</v>
       </c>
+      <c r="F501" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A502">
@@ -9922,6 +10564,9 @@
       <c r="E502" t="s">
         <v>33</v>
       </c>
+      <c r="F502" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A503">
@@ -9939,6 +10584,9 @@
       <c r="E503" t="s">
         <v>33</v>
       </c>
+      <c r="F503" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A504">
@@ -9956,6 +10604,9 @@
       <c r="E504" t="s">
         <v>33</v>
       </c>
+      <c r="F504" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A505">
@@ -9973,6 +10624,9 @@
       <c r="E505" t="s">
         <v>33</v>
       </c>
+      <c r="F505" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A506">
@@ -9989,6 +10643,9 @@
       </c>
       <c r="E506" t="s">
         <v>33</v>
+      </c>
+      <c r="F506" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.35">
